--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projets\Elab car\Elab-car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets\Elab car\Elab-car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74147203-9A69-40B7-B8A9-249F46C8BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4BEDEB-3888-445E-A4C7-396224572D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5797B469-76CD-4178-BCE1-BF12993D010C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5797B469-76CD-4178-BCE1-BF12993D010C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Capa</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>R5</t>
+  </si>
+  <si>
+    <t>Note: remplacé par capa 22µF pour tests</t>
+  </si>
+  <si>
+    <t>note : remplacé par 2 connecteurs 1x4 pour les tests</t>
+  </si>
+  <si>
+    <t>Essayer d'en choper au 2067 comme un gros shlag ?</t>
   </si>
 </sst>
 </file>
@@ -583,19 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4707FA4-473E-40A9-8ED5-0F2DC0611841}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -609,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -623,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -636,8 +645,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -651,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -665,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -679,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -690,7 +702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -701,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -712,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -726,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -737,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -750,8 +762,11 @@
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -765,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -779,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -792,8 +807,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -807,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -821,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -835,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -849,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -863,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -877,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -888,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -896,7 +914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -907,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -918,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -929,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -940,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -954,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D30">
         <f>SUM(D2:D28)</f>
         <v>86</v>
